--- a/Financial Dashboard.xlsx
+++ b/Financial Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="P &amp; L" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Revenue column chart" sheetId="3" r:id="rId3"/>
     <sheet name="Cost analysis Pie chart" sheetId="4" r:id="rId4"/>
     <sheet name="Target Bar charts" sheetId="5" r:id="rId5"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cost analysis Pie chart'!$B$5:$C$5</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>P &amp; L statement 2020</t>
   </si>
@@ -125,6 +126,9 @@
   <si>
     <t>Achieved</t>
   </si>
+  <si>
+    <t>Financial Dashboard</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +160,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -524,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -579,6 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,11 +1056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220453568"/>
-        <c:axId val="220450040"/>
+        <c:axId val="229809080"/>
+        <c:axId val="230595904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220453568"/>
+        <c:axId val="229809080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220450040"/>
+        <c:crossAx val="230595904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220450040"/>
+        <c:axId val="230595904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220453568"/>
+        <c:crossAx val="229809080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1427,11 +1439,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220451608"/>
-        <c:axId val="220450432"/>
+        <c:axId val="230571136"/>
+        <c:axId val="230361688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220451608"/>
+        <c:axId val="230571136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220450432"/>
+        <c:crossAx val="230361688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220450432"/>
+        <c:axId val="230361688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220451608"/>
+        <c:crossAx val="230571136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2165,11 +2177,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220452000"/>
-        <c:axId val="220451216"/>
+        <c:axId val="230968224"/>
+        <c:axId val="231410672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220452000"/>
+        <c:axId val="230968224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220451216"/>
+        <c:crossAx val="231410672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220451216"/>
+        <c:axId val="231410672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300000"/>
@@ -2272,7 +2284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220452000"/>
+        <c:crossAx val="230968224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100000"/>
@@ -4677,6 +4689,163 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="731520"/>
+          <a:ext cx="4282440" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="731520"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617221" y="3474720"/>
+          <a:ext cx="4267200" cy="3574118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3474720"/>
+          <a:ext cx="4579620" cy="3596952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9257,8 +9426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10307,4 +10476,26 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="7:7" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="G1" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>